--- a/Energia/Model/t1_confection/A2_Extra_Inputs/A-Xtra_Emissions.xlsx
+++ b/Energia/Model/t1_confection/A2_Extra_Inputs/A-Xtra_Emissions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisf\Dropbox\2_WORK\EperLab\2_Herramientas\_mmf_ECU\modelo_energia_202210\t1_confection_v22_en_edicion\A2_Extra_Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ucr\Desktop\t1_confection_v24_CC_2070_V2\A2_Extra_Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66FC8E9-5A26-4047-BFE8-2BA86405A1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C58CB7F-DC37-408A-A0FE-B18142260651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GHGs" sheetId="1" r:id="rId1"/>
@@ -1720,25 +1720,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.53515625" customWidth="1"/>
-    <col min="4" max="4" width="16.3046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.3046875" customWidth="1"/>
+    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="62.53515625" customWidth="1"/>
-    <col min="8" max="8" width="24.69140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.3046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.07421875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="62.5703125" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>8</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>15</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>16</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>17</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>18</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>19</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>20</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>21</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>22</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>23</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>24</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>25</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>26</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>27</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>28</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>29</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>30</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>31</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>32</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>33</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>34</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>35</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>36</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>37</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>38</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>39</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>40</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>41</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>42</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>43</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>44</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>45</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>46</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>47</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>48</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
         <v>49</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
         <v>50</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>51</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>52</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>53</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>54</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>55</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>56</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>57</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>58</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>59</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>60</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>61</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
         <v>62</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>63</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
         <v>64</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
         <v>65</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
         <v>66</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
         <v>67</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
         <v>68</v>
       </c>
@@ -3048,19 +3048,19 @@
       </c>
       <c r="C63" s="26">
         <f t="shared" si="0"/>
-        <v>0.28814499999999998</v>
+        <v>0.15631272800000001</v>
       </c>
       <c r="D63" s="26">
         <v>2.86</v>
       </c>
       <c r="E63" s="26">
-        <v>0.10074999999999999</v>
+        <v>5.4654800000000003E-2</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
         <v>69</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
         <v>70</v>
       </c>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="H65" s="57"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
         <v>71</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="30" t="s">
         <v>72</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="68" t="s">
         <v>98</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="72" t="s">
         <v>102</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="65" t="s">
         <v>87</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="80" t="s">
         <v>73</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="77" t="s">
         <v>92</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="58" t="s">
         <v>89</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="58" t="s">
         <v>90</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="58" t="s">
         <v>91</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="61" t="s">
         <v>74</v>
       </c>
@@ -3346,16 +3346,16 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.07421875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>6</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
         <v>94</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>12</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
         <v>13</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
         <v>18</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="s">
         <v>8</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="56" t="s">
         <v>95</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">
         <v>19</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="56" t="s">
         <v>11</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>20</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>9</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="56" t="s">
         <v>15</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="56" t="s">
         <v>96</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="56" t="s">
         <v>21</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
         <v>10</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="s">
         <v>16</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="48" t="s">
         <v>97</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="83" t="s">
         <v>106</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="77" t="s">
         <v>107</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="77" t="s">
         <v>108</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="77" t="s">
         <v>109</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="77" t="s">
         <v>110</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="77" t="s">
         <v>111</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="77" t="s">
         <v>112</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="77" t="s">
         <v>113</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="58" t="s">
         <v>114</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="118" t="s">
         <v>115</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="83" t="s">
         <v>106</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="77" t="s">
         <v>107</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="77" t="s">
         <v>108</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="77" t="s">
         <v>109</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="77" t="s">
         <v>110</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="77" t="s">
         <v>111</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="77" t="s">
         <v>112</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="77" t="s">
         <v>113</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="58" t="s">
         <v>114</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="61" t="s">
         <v>115</v>
       </c>
@@ -4035,22 +4035,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA824489-2E3A-4C04-988F-00B1B8D711D7}">
   <dimension ref="A1:BH76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.23046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.23046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.69140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.84375" bestFit="1" customWidth="1"/>
-    <col min="8" max="60" width="4.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="60" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>8</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>15</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>16</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>17</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>18</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>19</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>20</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:60" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>21</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>22</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>23</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>24</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>25</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>26</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>27</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>28</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>29</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>30</v>
       </c>
@@ -9843,7 +9843,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>31</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>32</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>33</v>
       </c>
@@ -10551,7 +10551,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>34</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>35</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>36</v>
       </c>
@@ -11259,7 +11259,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>37</v>
       </c>
@@ -11495,7 +11495,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>38</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>39</v>
       </c>
@@ -11967,7 +11967,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>40</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>41</v>
       </c>
@@ -12439,7 +12439,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>42</v>
       </c>
@@ -12675,7 +12675,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>43</v>
       </c>
@@ -12911,7 +12911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>44</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>45</v>
       </c>
@@ -13383,7 +13383,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>46</v>
       </c>
@@ -13619,7 +13619,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>47</v>
       </c>
@@ -13855,7 +13855,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>48</v>
       </c>
@@ -14091,7 +14091,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:60" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
         <v>49</v>
       </c>
@@ -14327,7 +14327,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
         <v>50</v>
       </c>
@@ -14563,7 +14563,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>51</v>
       </c>
@@ -14799,7 +14799,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>52</v>
       </c>
@@ -15035,7 +15035,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>53</v>
       </c>
@@ -15271,7 +15271,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>54</v>
       </c>
@@ -15507,7 +15507,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>55</v>
       </c>
@@ -15743,7 +15743,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>56</v>
       </c>
@@ -15979,7 +15979,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>57</v>
       </c>
@@ -16215,7 +16215,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>58</v>
       </c>
@@ -16451,7 +16451,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>59</v>
       </c>
@@ -16687,7 +16687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>60</v>
       </c>
@@ -16923,7 +16923,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>61</v>
       </c>
@@ -17159,7 +17159,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
         <v>62</v>
       </c>
@@ -17395,7 +17395,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>63</v>
       </c>
@@ -17631,7 +17631,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
         <v>64</v>
       </c>
@@ -17867,7 +17867,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
         <v>65</v>
       </c>
@@ -18103,7 +18103,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
         <v>66</v>
       </c>
@@ -18339,7 +18339,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
         <v>67</v>
       </c>
@@ -18575,7 +18575,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
         <v>68</v>
       </c>
@@ -18811,7 +18811,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
         <v>69</v>
       </c>
@@ -19047,7 +19047,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
         <v>70</v>
       </c>
@@ -19283,7 +19283,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
         <v>71</v>
       </c>
@@ -19519,7 +19519,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:60" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="30" t="s">
         <v>72</v>
       </c>
@@ -19755,7 +19755,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A68" s="68" t="s">
         <v>98</v>
       </c>
@@ -19991,7 +19991,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:60" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="72" t="s">
         <v>102</v>
       </c>
@@ -20227,7 +20227,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A70" s="65" t="s">
         <v>87</v>
       </c>
@@ -20463,7 +20463,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:60" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="80" t="s">
         <v>73</v>
       </c>
@@ -20699,7 +20699,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A72" s="83" t="s">
         <v>92</v>
       </c>
@@ -20932,7 +20932,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A73" s="58" t="s">
         <v>89</v>
       </c>
@@ -21165,7 +21165,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A74" s="58" t="s">
         <v>90</v>
       </c>
@@ -21397,7 +21397,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A75" s="58" t="s">
         <v>91</v>
       </c>
@@ -21630,7 +21630,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:60" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="61" t="s">
         <v>74</v>
       </c>
@@ -21876,18 +21876,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
